--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Ausgaben</t>
   </si>
   <si>
+    <t>300.0 €</t>
+  </si>
+  <si>
+    <t>Kassenbestand</t>
+  </si>
+  <si>
     <t>200.0 €</t>
-  </si>
-  <si>
-    <t>Kassenbestand</t>
-  </si>
-  <si>
-    <t>300.0 €</t>
   </si>
   <si>
     <t/>
@@ -82,12 +82,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -242,26 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
@@ -277,42 +272,72 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -439,38 +464,54 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="n" s="24">
         <v>1.0</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="n" s="25">
         <v>9052020.0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="27">
         <v>16</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="n" s="28">
         <v>500.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="n" s="29">
         <v>1.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" t="n" s="30">
         <v>1.005202E7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="31">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="32">
         <v>16</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" t="n" s="33">
         <v>200.0</v>
       </c>
     </row>
-    <row r="10"/>
+    <row r="10">
+      <c r="F10" t="n" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="n" s="35">
+        <v>1.105202E7</v>
+      </c>
+      <c r="H10" t="s" s="36">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="37">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n" s="38">
+        <v>100.0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -91,12 +91,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="44"/>
+        <fgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
+        <fgColor indexed="41"/>
       </patternFill>
     </fill>
     <fill>
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -207,6 +207,38 @@
       </bottom>
     </border>
     <border>
+      <left style="thick"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
@@ -252,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -260,84 +292,86 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -479,7 +513,7 @@
       <c r="E9" t="n" s="28">
         <v>500.0</v>
       </c>
-      <c r="F9" t="n" s="29">
+      <c r="F9" t="n" s="39">
         <v>1.0</v>
       </c>
       <c r="G9" t="n" s="30">
@@ -496,7 +530,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="n" s="34">
+      <c r="F10" t="n" s="40">
         <v>2.0</v>
       </c>
       <c r="G10" t="n" s="35">

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -17,7 +17,7 @@
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
   <si>
-    <t>Anfangsbestand</t>
+    <t>Anfangsbestand/Euro</t>
   </si>
   <si>
     <t>0.0 €</t>
@@ -384,7 +384,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -20,30 +20,24 @@
     <t>Anfangsbestand/Euro</t>
   </si>
   <si>
-    <t>0.0 €</t>
+    <t>Einnahmen/Euro</t>
+  </si>
+  <si>
+    <t>Ausgaben/Euro</t>
+  </si>
+  <si>
+    <t>Kassenbestand/Euro</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Einnahmen</t>
   </si>
   <si>
-    <t>500.0 €</t>
-  </si>
-  <si>
     <t>Ausgaben</t>
   </si>
   <si>
-    <t>300.0 €</t>
-  </si>
-  <si>
-    <t>Kassenbestand</t>
-  </si>
-  <si>
-    <t>200.0 €</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -56,7 +50,10 @@
     <t>Abteilung</t>
   </si>
   <si>
-    <t>Betrag/€</t>
+    <t>Betrag/Euro</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
   </si>
   <si>
     <t>Einnahme</t>
@@ -65,7 +62,19 @@
     <t>Schwimmen</t>
   </si>
   <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
     <t>Ausgabe</t>
+  </si>
+  <si>
+    <t>Handball</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
   </si>
 </sst>
 </file>
@@ -385,15 +394,15 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.88671875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.65625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.9765625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="8.88671875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -405,110 +414,110 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>500.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>300.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>200.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J7" t="s" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="15">
+      <c r="D8" t="s" s="17">
         <v>11</v>
       </c>
-      <c r="C8" t="s" s="16">
+      <c r="E8" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="D8" t="s" s="17">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s" s="18">
-        <v>14</v>
-      </c>
       <c r="F8" t="s" s="19">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s" s="20">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s" s="21">
         <v>10</v>
       </c>
-      <c r="G8" t="s" s="20">
+      <c r="I8" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="H8" t="s" s="21">
+      <c r="J8" t="s" s="23">
         <v>12</v>
-      </c>
-      <c r="I8" t="s" s="22">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s" s="23">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="24">
         <v>1.0</v>
       </c>
-      <c r="B9" t="n" s="25">
-        <v>9052020.0</v>
+      <c r="B9" t="s" s="25">
+        <v>13</v>
       </c>
       <c r="C9" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="27">
         <v>15</v>
-      </c>
-      <c r="D9" t="s" s="27">
-        <v>16</v>
       </c>
       <c r="E9" t="n" s="28">
         <v>500.0</v>
@@ -516,14 +525,14 @@
       <c r="F9" t="n" s="39">
         <v>1.0</v>
       </c>
-      <c r="G9" t="n" s="30">
-        <v>1.005202E7</v>
+      <c r="G9" t="s" s="30">
+        <v>16</v>
       </c>
       <c r="H9" t="s" s="31">
         <v>17</v>
       </c>
       <c r="I9" t="s" s="32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n" s="33">
         <v>200.0</v>
@@ -533,14 +542,14 @@
       <c r="F10" t="n" s="40">
         <v>2.0</v>
       </c>
-      <c r="G10" t="n" s="35">
-        <v>1.105202E7</v>
+      <c r="G10" t="s" s="35">
+        <v>19</v>
       </c>
       <c r="H10" t="s" s="36">
         <v>17</v>
       </c>
       <c r="I10" t="s" s="37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n" s="38">
         <v>100.0</v>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -51,30 +51,6 @@
   </si>
   <si>
     <t>Betrag/Euro</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
-    <t>Einnahme</t>
-  </si>
-  <si>
-    <t>Schwimmen</t>
-  </si>
-  <si>
-    <t>10/05/2020</t>
-  </si>
-  <si>
-    <t>Ausgabe</t>
-  </si>
-  <si>
-    <t>Handball</t>
-  </si>
-  <si>
-    <t>11/05/2020</t>
-  </si>
-  <si>
-    <t>Volleyball</t>
   </si>
 </sst>
 </file>
@@ -139,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -216,38 +192,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thick"/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
@@ -293,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -301,107 +245,90 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.09765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.65625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.09765625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.65625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -423,7 +350,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>500.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -431,7 +358,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -439,7 +366,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -504,55 +431,6 @@
       </c>
       <c r="J8" t="s" s="23">
         <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="B9" t="s" s="25">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="26">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s" s="27">
-        <v>15</v>
-      </c>
-      <c r="E9" t="n" s="28">
-        <v>500.0</v>
-      </c>
-      <c r="F9" t="n" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G9" t="s" s="30">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="31">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s" s="32">
-        <v>18</v>
-      </c>
-      <c r="J9" t="n" s="33">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="n" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="G10" t="s" s="35">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s" s="36">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s" s="37">
-        <v>20</v>
-      </c>
-      <c r="J10" t="n" s="38">
-        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -51,6 +51,30 @@
   </si>
   <si>
     <t>Betrag/Euro</t>
+  </si>
+  <si>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>Einnahme</t>
+  </si>
+  <si>
+    <t>Schwimmen</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>Ausgabe</t>
+  </si>
+  <si>
+    <t>Handball</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
   </si>
 </sst>
 </file>
@@ -115,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -192,6 +216,38 @@
       </bottom>
     </border>
     <border>
+      <left style="thick"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
@@ -237,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -245,90 +301,107 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.65625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="7.09765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.765625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -350,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="4">
@@ -358,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="5">
@@ -366,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="7">
@@ -431,6 +504,55 @@
       </c>
       <c r="J8" t="s" s="23">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="B9" t="s" s="25">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="27">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n" s="28">
+        <v>500.0</v>
+      </c>
+      <c r="F9" t="n" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="s" s="30">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="31">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="32">
+        <v>18</v>
+      </c>
+      <c r="J9" t="n" s="33">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="n" s="40">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s" s="36">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n" s="38">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -53,28 +53,22 @@
     <t>Betrag/Euro</t>
   </si>
   <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>Einnahme</t>
-  </si>
-  <si>
-    <t>Schwimmen</t>
-  </si>
-  <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>Ausgabe</t>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
   </si>
   <si>
     <t>Handball</t>
   </si>
   <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>Volleyball</t>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -396,12 +390,12 @@
     <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.65625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.65625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -423,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>500.0</v>
+        <v>712.0</v>
       </c>
     </row>
     <row r="4">
@@ -431,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>300.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="5">
@@ -439,7 +433,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>200.0</v>
+        <v>662.0</v>
       </c>
     </row>
     <row r="7">
@@ -517,42 +511,42 @@
         <v>14</v>
       </c>
       <c r="D9" t="s" s="27">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n" s="28">
+        <v>212.0</v>
+      </c>
+      <c r="F9" t="n" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="s" s="35">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="36">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s" s="37">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n" s="38">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="E9" t="n" s="28">
+      <c r="C10" t="s" s="31">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="32">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n" s="33">
         <v>500.0</v>
-      </c>
-      <c r="F9" t="n" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G9" t="s" s="30">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s" s="31">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s" s="32">
-        <v>18</v>
-      </c>
-      <c r="J9" t="n" s="33">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="n" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="G10" t="s" s="35">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s" s="36">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s" s="37">
-        <v>20</v>
-      </c>
-      <c r="J10" t="n" s="38">
-        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -53,22 +53,31 @@
     <t>Betrag/Euro</t>
   </si>
   <si>
-    <t>2021-10-10</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>2021-05-10</t>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
   <si>
     <t>Handball</t>
   </si>
   <si>
-    <t>2021-01-12</t>
+    <t>2020-09-06</t>
   </si>
   <si>
     <t>Test2</t>
+  </si>
+  <si>
+    <t>Schwimmen</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Laufen</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.9765625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -417,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>712.0</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="4">
@@ -425,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>50.0</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="5">
@@ -433,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>662.0</v>
+        <v>-5.399999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -511,42 +520,42 @@
         <v>14</v>
       </c>
       <c r="D9" t="s" s="27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n" s="28">
-        <v>212.0</v>
-      </c>
-      <c r="F9" t="n" s="34">
+        <v>50.7</v>
+      </c>
+      <c r="F9" t="n" s="39">
         <v>1.0</v>
       </c>
-      <c r="G9" t="s" s="35">
+      <c r="G9" t="s" s="30">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="31">
         <v>17</v>
       </c>
-      <c r="H9" t="s" s="36">
+      <c r="I9" t="s" s="32">
         <v>18</v>
       </c>
-      <c r="I9" t="s" s="37">
-        <v>16</v>
-      </c>
-      <c r="J9" t="n" s="38">
-        <v>50.0</v>
+      <c r="J9" t="n" s="33">
+        <v>45.6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="29">
+      <c r="F10" t="n" s="40">
         <v>2.0</v>
       </c>
-      <c r="B10" t="s" s="30">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s" s="31">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s" s="32">
-        <v>16</v>
-      </c>
-      <c r="E10" t="n" s="33">
-        <v>500.0</v>
+      <c r="G10" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s" s="36">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s" s="37">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n" s="38">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -53,31 +53,28 @@
     <t>Betrag/Euro</t>
   </si>
   <si>
-    <t>2021-05-09</t>
-  </si>
-  <si>
-    <t>Test1</t>
+    <t>2020-05-09</t>
+  </si>
+  <si>
+    <t>Einnahme</t>
+  </si>
+  <si>
+    <t>Schwimmen</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>Ausgabe</t>
   </si>
   <si>
     <t>Handball</t>
   </si>
   <si>
-    <t>2020-09-06</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Schwimmen</t>
-  </si>
-  <si>
-    <t>2022-06-08</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Laufen</t>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
   </si>
 </sst>
 </file>
@@ -142,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -219,38 +216,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thick"/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
@@ -296,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -304,86 +269,84 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -399,12 +362,12 @@
     <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.65625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.9765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.765625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -426,7 +389,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>50.7</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="4">
@@ -434,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>56.1</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="5">
@@ -442,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.399999999999999</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="7">
@@ -523,9 +486,9 @@
         <v>15</v>
       </c>
       <c r="E9" t="n" s="28">
-        <v>50.7</v>
-      </c>
-      <c r="F9" t="n" s="39">
+        <v>500.0</v>
+      </c>
+      <c r="F9" t="n" s="29">
         <v>1.0</v>
       </c>
       <c r="G9" t="s" s="30">
@@ -538,24 +501,24 @@
         <v>18</v>
       </c>
       <c r="J9" t="n" s="33">
-        <v>45.6</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="n" s="40">
+      <c r="F10" t="n" s="34">
         <v>2.0</v>
       </c>
       <c r="G10" t="s" s="35">
         <v>19</v>
       </c>
       <c r="H10" t="s" s="36">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="37">
         <v>20</v>
       </c>
-      <c r="I10" t="s" s="37">
-        <v>21</v>
-      </c>
       <c r="J10" t="n" s="38">
-        <v>10.5</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -53,28 +53,97 @@
     <t>Betrag/Euro</t>
   </si>
   <si>
-    <t>2020-05-09</t>
-  </si>
-  <si>
-    <t>Einnahme</t>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Handball</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
   <si>
     <t>Schwimmen</t>
   </si>
   <si>
-    <t>2020-05-10</t>
-  </si>
-  <si>
-    <t>Ausgabe</t>
-  </si>
-  <si>
-    <t>Handball</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>Volleyball</t>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Laufen</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Chillen</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Fussball</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
+    <t>sdah</t>
+  </si>
+  <si>
+    <t>ailsh</t>
+  </si>
+  <si>
+    <t>2022-02-02</t>
+  </si>
+  <si>
+    <t>iodh</t>
+  </si>
+  <si>
+    <t>doih</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>g&lt;doi</t>
+  </si>
+  <si>
+    <t>dajp</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>soi</t>
+  </si>
+  <si>
+    <t>spg</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>ewf</t>
+  </si>
+  <si>
+    <t>gDFF</t>
+  </si>
+  <si>
+    <t>DFFD</t>
   </si>
 </sst>
 </file>
@@ -216,7 +285,21 @@
       </bottom>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -225,7 +308,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -233,21 +316,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="8"/>
       </right>
       <top style="thin">
@@ -261,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -278,33 +347,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
@@ -332,7 +398,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -343,6 +411,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -353,21 +462,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.65625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.9765625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -381,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>-1.4210854715202004E-14</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>500.0</v>
+        <v>191.35000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -397,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>300.0</v>
+        <v>100.43</v>
       </c>
     </row>
     <row r="5">
@@ -405,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>200.0</v>
+        <v>90.92</v>
       </c>
     </row>
     <row r="7">
@@ -486,39 +595,169 @@
         <v>15</v>
       </c>
       <c r="E9" t="n" s="28">
-        <v>500.0</v>
-      </c>
-      <c r="F9" t="n" s="29">
+        <v>50.7</v>
+      </c>
+      <c r="F9" t="n" s="59">
         <v>1.0</v>
       </c>
-      <c r="G9" t="s" s="30">
+      <c r="G9" t="s" s="60">
         <v>16</v>
       </c>
-      <c r="H9" t="s" s="31">
+      <c r="H9" t="s" s="61">
         <v>17</v>
       </c>
-      <c r="I9" t="s" s="32">
+      <c r="I9" t="s" s="62">
         <v>18</v>
       </c>
-      <c r="J9" t="n" s="33">
-        <v>200.0</v>
+      <c r="J9" t="n" s="63">
+        <v>45.6</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="n" s="34">
+      <c r="A10" t="n" s="29">
         <v>2.0</v>
       </c>
-      <c r="G10" t="s" s="35">
+      <c r="B10" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="E10" t="n" s="33">
+        <v>21.32</v>
+      </c>
+      <c r="F10" t="n" s="64">
+        <v>2.0</v>
+      </c>
+      <c r="G10" t="s" s="65">
         <v>19</v>
       </c>
-      <c r="H10" t="s" s="36">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s" s="37">
+      <c r="H10" t="s" s="66">
         <v>20</v>
       </c>
-      <c r="J10" t="n" s="38">
-        <v>100.0</v>
+      <c r="I10" t="s" s="67">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n" s="68">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="34">
+        <v>3.0</v>
+      </c>
+      <c r="B11" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s" s="36">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s" s="37">
+        <v>30</v>
+      </c>
+      <c r="E11" t="n" s="38">
+        <v>22.0</v>
+      </c>
+      <c r="F11" t="n" s="69">
+        <v>3.0</v>
+      </c>
+      <c r="G11" t="s" s="70">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s" s="71">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s" s="72">
+        <v>27</v>
+      </c>
+      <c r="J11" t="n" s="73">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="B12" t="s" s="40">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="41">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="42">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n" s="43">
+        <v>32.0</v>
+      </c>
+      <c r="F12" t="n" s="74">
+        <v>4.0</v>
+      </c>
+      <c r="G12" t="s" s="75">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s" s="76">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s" s="77">
+        <v>39</v>
+      </c>
+      <c r="J12" t="n" s="78">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="44">
+        <v>5.0</v>
+      </c>
+      <c r="B13" t="s" s="45">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s" s="46">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s" s="47">
+        <v>36</v>
+      </c>
+      <c r="E13" t="n" s="48">
+        <v>22.33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="49">
+        <v>6.0</v>
+      </c>
+      <c r="B14" t="s" s="50">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s" s="51">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s" s="52">
+        <v>41</v>
+      </c>
+      <c r="E14" t="n" s="53">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="54">
+        <v>7.0</v>
+      </c>
+      <c r="B15" t="s" s="55">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="56">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s" s="57">
+        <v>43</v>
+      </c>
+      <c r="E15" t="n" s="58">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>

--- a/Kassenbuch.xlsx
+++ b/Kassenbuch.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Kassenbuch von: Sportverein Tuttlingen</t>
   </si>
@@ -53,97 +53,31 @@
     <t>Betrag/Euro</t>
   </si>
   <si>
-    <t>2021-05-09</t>
-  </si>
-  <si>
-    <t>Test1</t>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>Kuchenverkauf</t>
   </si>
   <si>
     <t>Handball</t>
   </si>
   <si>
-    <t>2020-09-06</t>
-  </si>
-  <si>
-    <t>Test2</t>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>Trikots</t>
+  </si>
+  <si>
+    <t>Fussball</t>
+  </si>
+  <si>
+    <t>2022-01-15</t>
+  </si>
+  <si>
+    <t>Spende</t>
   </si>
   <si>
     <t>Schwimmen</t>
-  </si>
-  <si>
-    <t>2022-06-08</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Laufen</t>
-  </si>
-  <si>
-    <t>2021-09-09</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>Chillen</t>
-  </si>
-  <si>
-    <t>2023-02-02</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>Fussball</t>
-  </si>
-  <si>
-    <t>2024-05-05</t>
-  </si>
-  <si>
-    <t>sdah</t>
-  </si>
-  <si>
-    <t>ailsh</t>
-  </si>
-  <si>
-    <t>2022-02-02</t>
-  </si>
-  <si>
-    <t>iodh</t>
-  </si>
-  <si>
-    <t>doih</t>
-  </si>
-  <si>
-    <t>2020-02-02</t>
-  </si>
-  <si>
-    <t>g&lt;doi</t>
-  </si>
-  <si>
-    <t>dajp</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>soi</t>
-  </si>
-  <si>
-    <t>spg</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>ewf</t>
-  </si>
-  <si>
-    <t>gDFF</t>
-  </si>
-  <si>
-    <t>DFFD</t>
   </si>
 </sst>
 </file>
@@ -330,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyAlignment="true" applyFill="true" applyBorder="true">
       <alignment horizontal="center"/>
@@ -411,46 +345,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -462,21 +356,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.41015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.9765625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="3.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.38671875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.9765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.65625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -490,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.4210854715202004E-14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>191.35000000000002</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>100.43</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="5">
@@ -514,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>90.92</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="7">
@@ -595,22 +489,22 @@
         <v>15</v>
       </c>
       <c r="E9" t="n" s="28">
-        <v>50.7</v>
-      </c>
-      <c r="F9" t="n" s="59">
+        <v>150.0</v>
+      </c>
+      <c r="F9" t="n" s="34">
         <v>1.0</v>
       </c>
-      <c r="G9" t="s" s="60">
+      <c r="G9" t="s" s="35">
         <v>16</v>
       </c>
-      <c r="H9" t="s" s="61">
+      <c r="H9" t="s" s="36">
         <v>17</v>
       </c>
-      <c r="I9" t="s" s="62">
+      <c r="I9" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="J9" t="n" s="63">
-        <v>45.6</v>
+      <c r="J9" t="n" s="38">
+        <v>400.0</v>
       </c>
     </row>
     <row r="10">
@@ -618,146 +512,16 @@
         <v>2.0</v>
       </c>
       <c r="B10" t="s" s="30">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s" s="31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s" s="32">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n" s="33">
-        <v>21.32</v>
-      </c>
-      <c r="F10" t="n" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="G10" t="s" s="65">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s" s="66">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s" s="67">
-        <v>21</v>
-      </c>
-      <c r="J10" t="n" s="68">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="34">
-        <v>3.0</v>
-      </c>
-      <c r="B11" t="s" s="35">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s" s="36">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s" s="37">
-        <v>30</v>
-      </c>
-      <c r="E11" t="n" s="38">
-        <v>22.0</v>
-      </c>
-      <c r="F11" t="n" s="69">
-        <v>3.0</v>
-      </c>
-      <c r="G11" t="s" s="70">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s" s="71">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s" s="72">
-        <v>27</v>
-      </c>
-      <c r="J11" t="n" s="73">
-        <v>23.33</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="39">
-        <v>4.0</v>
-      </c>
-      <c r="B12" t="s" s="40">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s" s="41">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="42">
-        <v>33</v>
-      </c>
-      <c r="E12" t="n" s="43">
-        <v>32.0</v>
-      </c>
-      <c r="F12" t="n" s="74">
-        <v>4.0</v>
-      </c>
-      <c r="G12" t="s" s="75">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s" s="76">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="77">
-        <v>39</v>
-      </c>
-      <c r="J12" t="n" s="78">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="B13" t="s" s="45">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s" s="46">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s" s="47">
-        <v>36</v>
-      </c>
-      <c r="E13" t="n" s="48">
-        <v>22.33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="49">
-        <v>6.0</v>
-      </c>
-      <c r="B14" t="s" s="50">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s" s="51">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s" s="52">
-        <v>41</v>
-      </c>
-      <c r="E14" t="n" s="53">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="54">
-        <v>7.0</v>
-      </c>
-      <c r="B15" t="s" s="55">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s" s="56">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s" s="57">
-        <v>43</v>
-      </c>
-      <c r="E15" t="n" s="58">
-        <v>22.0</v>
+        <v>500.0</v>
       </c>
     </row>
   </sheetData>
